--- a/src/Helpers/resources/format_ages.xlsx
+++ b/src/Helpers/resources/format_ages.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1. Projects-main\cartera\wallcart-back\src\Helpers\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff\Documents\Develop\xara\wallcart-back\src\Helpers\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BCB3BC-2FAE-4EB0-B4C4-DB1EF988B6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75063D82-FD56-43F9-998E-473ECA87F6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5C67B7-1278-4139-82CE-03A9182599A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD5C67B7-1278-4139-82CE-03A9182599A4}"/>
   </bookViews>
   <sheets>
     <sheet name="AGES" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -250,15 +252,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -269,16 +262,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -652,7 +654,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -667,90 +669,90 @@
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44891</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="11"/>
@@ -765,148 +767,148 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
@@ -923,13 +925,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
